--- a/doc/plan/Project_CM-Plan.xlsx
+++ b/doc/plan/Project_CM-Plan.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Campuslink\fa-qms\svn\wip\docs\templates\Project-GIT-Folder\doc\plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\New folder (3)\Mechanical-Information-System1\doc\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="48" windowWidth="20112" windowHeight="7992"/>
   </bookViews>
   <sheets>
     <sheet name="GIT" sheetId="8" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Note</t>
   </si>
@@ -132,29 +132,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>: Tuyệt đối không được commit các file thừa hoặc các</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 51207064@hcmut.edu.vn</t>
     </r>
   </si>
   <si>
@@ -512,6 +489,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -547,6 +541,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -725,18 +736,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -767,7 +780,7 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
@@ -783,7 +796,7 @@
       <c r="AO3" s="4"/>
       <c r="AP3" s="5"/>
       <c r="AQ3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AR3" s="4"/>
       <c r="AS3" s="4"/>
@@ -797,7 +810,7 @@
       <c r="BA3" s="4"/>
       <c r="BB3" s="5"/>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
         <v>1</v>
@@ -854,7 +867,7 @@
       <c r="BA4" s="7"/>
       <c r="BB4" s="8"/>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
       <c r="C5" s="7" t="s">
         <v>2</v>
@@ -913,10 +926,10 @@
       <c r="BA5" s="7"/>
       <c r="BB5" s="8"/>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -927,7 +940,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="8"/>
       <c r="L6" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -972,7 +985,7 @@
       <c r="BA6" s="7"/>
       <c r="BB6" s="8"/>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
       <c r="C7" s="7" t="s">
         <v>3</v>
@@ -1031,10 +1044,10 @@
       <c r="BA7" s="7"/>
       <c r="BB7" s="8"/>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -1045,7 +1058,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="8"/>
       <c r="L8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
@@ -1090,7 +1103,7 @@
       <c r="BA8" s="7"/>
       <c r="BB8" s="8"/>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
         <v>4</v>
@@ -1123,7 +1136,7 @@
       <c r="AA9" s="7"/>
       <c r="AB9" s="8"/>
       <c r="AC9" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
@@ -1139,7 +1152,7 @@
       <c r="AO9" s="7"/>
       <c r="AP9" s="8"/>
       <c r="AQ9" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AR9" s="7"/>
       <c r="AS9" s="7"/>
@@ -1153,7 +1166,7 @@
       <c r="BA9" s="7"/>
       <c r="BB9" s="8"/>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
       <c r="C10" s="7" t="s">
         <v>5</v>
@@ -1212,7 +1225,7 @@
       <c r="BA10" s="7"/>
       <c r="BB10" s="8"/>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
         <v>6</v>
@@ -1245,7 +1258,7 @@
       <c r="AA11" s="7"/>
       <c r="AB11" s="8"/>
       <c r="AC11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
@@ -1261,7 +1274,7 @@
       <c r="AO11" s="7"/>
       <c r="AP11" s="8"/>
       <c r="AQ11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR11" s="7"/>
       <c r="AS11" s="7"/>
@@ -1275,10 +1288,10 @@
       <c r="BA11" s="7"/>
       <c r="BB11" s="8"/>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -1289,7 +1302,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="8"/>
       <c r="L12" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -1334,10 +1347,10 @@
       <c r="BA12" s="7"/>
       <c r="BB12" s="8"/>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -1348,7 +1361,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="8"/>
       <c r="L13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
@@ -1393,7 +1406,7 @@
       <c r="BA13" s="7"/>
       <c r="BB13" s="8"/>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
       <c r="C14" s="7" t="s">
         <v>7</v>
@@ -1452,7 +1465,7 @@
       <c r="BA14" s="7"/>
       <c r="BB14" s="8"/>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
         <v>8</v>
@@ -1511,7 +1524,7 @@
       <c r="BA15" s="7"/>
       <c r="BB15" s="8"/>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="7" t="s">
         <v>9</v>
@@ -1525,7 +1538,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="8"/>
       <c r="L16" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
@@ -1570,10 +1583,10 @@
       <c r="BA16" s="7"/>
       <c r="BB16" s="8"/>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
       <c r="C17" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1584,7 +1597,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="8"/>
       <c r="L17" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
@@ -1629,10 +1642,10 @@
       <c r="BA17" s="7"/>
       <c r="BB17" s="8"/>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -1643,7 +1656,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="8"/>
       <c r="L18" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
@@ -1688,7 +1701,7 @@
       <c r="BA18" s="7"/>
       <c r="BB18" s="8"/>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="C19" s="7" t="s">
         <v>10</v>
@@ -1747,10 +1760,10 @@
       <c r="BA19" s="7"/>
       <c r="BB19" s="8"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
       <c r="C20" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -1761,7 +1774,7 @@
       <c r="J20" s="7"/>
       <c r="K20" s="8"/>
       <c r="L20" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
@@ -1806,7 +1819,7 @@
       <c r="BA20" s="7"/>
       <c r="BB20" s="8"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="6"/>
       <c r="C21" s="7" t="s">
         <v>11</v>
@@ -1865,7 +1878,7 @@
       <c r="BA21" s="7"/>
       <c r="BB21" s="8"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
       <c r="C22" s="7" t="s">
         <v>12</v>
@@ -1879,7 +1892,7 @@
       <c r="J22" s="7"/>
       <c r="K22" s="8"/>
       <c r="L22" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
@@ -1924,7 +1937,7 @@
       <c r="BA22" s="7"/>
       <c r="BB22" s="8"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1936,7 +1949,7 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
@@ -1981,7 +1994,7 @@
       <c r="BA23" s="7"/>
       <c r="BB23" s="8"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -2038,7 +2051,7 @@
       <c r="BA24" s="7"/>
       <c r="BB24" s="8"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -2095,7 +2108,7 @@
       <c r="BA25" s="7"/>
       <c r="BB25" s="8"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -2106,9 +2119,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="L26" s="9"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -2152,7 +2163,7 @@
       <c r="BA26" s="7"/>
       <c r="BB26" s="8"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -2209,7 +2220,7 @@
       <c r="BA27" s="7"/>
       <c r="BB27" s="8"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -2266,7 +2277,7 @@
       <c r="BA28" s="7"/>
       <c r="BB28" s="8"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -2321,7 +2332,7 @@
       <c r="BA29" s="7"/>
       <c r="BB29" s="8"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -2378,7 +2389,7 @@
       <c r="BA30" s="7"/>
       <c r="BB30" s="8"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -2390,7 +2401,7 @@
       <c r="J31" s="7"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
@@ -2435,7 +2446,7 @@
       <c r="BA31" s="7"/>
       <c r="BB31" s="8"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -2448,7 +2459,7 @@
       <c r="K32" s="8"/>
       <c r="L32" s="6"/>
       <c r="M32" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
@@ -2492,7 +2503,7 @@
       <c r="BA32" s="7"/>
       <c r="BB32" s="8"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -2505,7 +2516,7 @@
       <c r="K33" s="8"/>
       <c r="L33" s="6"/>
       <c r="M33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
@@ -2549,7 +2560,7 @@
       <c r="BA33" s="7"/>
       <c r="BB33" s="8"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -2604,7 +2615,7 @@
       <c r="BA34" s="11"/>
       <c r="BB34" s="12"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2674,7 +2685,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.15" footer="0.15"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
